--- a/weekly_online_paper_metrices/output/2023-02-27.xlsx
+++ b/weekly_online_paper_metrices/output/2023-02-27.xlsx
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="G4">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="G5">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="G15">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="G16">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>2097</v>
+        <v>2106</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="G28">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="G37">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>3549</v>
+        <v>3562</v>
       </c>
       <c r="H45">
         <v>14</v>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G50">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="G56">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G57">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="H57">
         <v>4</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="G59">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G64">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G74">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="G81">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -5138,13 +5138,13 @@
         </is>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3978</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
